--- a/academias/Tecnologías de la Información y la Comunicación - Estadisticos 2020.xlsx
+++ b/academias/Tecnologías de la Información y la Comunicación - Estadisticos 2020.xlsx
@@ -413,6 +413,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -464,6 +465,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -515,6 +517,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
